--- a/public/数据语料平台.xlsx
+++ b/public/数据语料平台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14680" activeTab="4"/>
+    <workbookView windowHeight="17940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总语料量" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>序号</t>
   </si>
@@ -41,12 +41,21 @@
     <t>印刷集团</t>
   </si>
   <si>
+    <t>5.3T</t>
+  </si>
+  <si>
     <t>中交集团</t>
   </si>
   <si>
+    <t>0.5T</t>
+  </si>
+  <si>
     <t>蒙泰集团</t>
   </si>
   <si>
+    <t>0.2T</t>
+  </si>
+  <si>
     <t>行业名称</t>
   </si>
   <si>
@@ -80,7 +89,7 @@
     <t>农业</t>
   </si>
   <si>
-    <t>政治意识形态</t>
+    <t>国家意识形态</t>
   </si>
   <si>
     <t>体育</t>
@@ -122,7 +131,7 @@
     <t>人工搜集</t>
   </si>
   <si>
-    <t>爬虫获取</t>
+    <t>自动化收集</t>
   </si>
   <si>
     <t>生态合作</t>
@@ -1139,8 +1148,8 @@
   <sheetPr/>
   <dimension ref="A10:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1167,8 +1176,8 @@
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11">
-        <v>5.3</v>
+      <c r="C11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1176,10 +1185,10 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>0.5</v>
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1187,10 +1196,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>0.2</v>
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1206,7 +1215,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1222,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1236,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>0.2</v>
@@ -1251,7 +1260,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>0.3</v>
@@ -1266,7 +1275,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>0.1</v>
@@ -1281,7 +1290,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>0.04</v>
@@ -1296,7 +1305,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>8.14</v>
@@ -1311,7 +1320,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>0.1</v>
@@ -1326,7 +1335,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>0.1</v>
@@ -1341,7 +1350,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>0.01</v>
@@ -1356,7 +1365,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>0.005</v>
@@ -1371,7 +1380,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>0.005</v>
@@ -1386,7 +1395,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -1401,7 +1410,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>40</v>
@@ -1421,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1435,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>0.01</v>
@@ -1453,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C20">
         <v>0.03</v>
@@ -1471,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>0.02</v>
@@ -1489,7 +1498,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>0.05</v>
@@ -1507,7 +1516,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <v>0.02</v>
@@ -1525,7 +1534,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C24">
         <f>C2-SUM(C19:C23)</f>
@@ -1568,13 +1577,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1582,7 +1591,7 @@
         <v>1.1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>0.01</v>
@@ -1600,7 +1609,7 @@
         <v>1.2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>0.03</v>
@@ -1618,7 +1627,7 @@
         <v>1.3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>0.02</v>
@@ -1636,7 +1645,7 @@
         <v>1.4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>0.05</v>
@@ -1654,7 +1663,7 @@
         <v>1.5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>0.02</v>
@@ -1672,7 +1681,7 @@
         <v>1.6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <f>0.2-SUM(C2:C6)</f>
@@ -1703,8 +1712,8 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1717,10 +1726,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1728,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>43</v>
@@ -1739,7 +1748,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>34</v>
@@ -1750,7 +1759,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>16</v>
@@ -1761,7 +1770,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1772,7 +1781,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1811,10 +1820,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1822,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <v>18</v>
@@ -1833,7 +1842,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -1844,7 +1853,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C4">
         <f>59-C2-C3</f>
@@ -1884,16 +1893,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1989,7 +1998,7 @@
     </row>
     <row r="10" spans="6:6">
       <c r="F10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2017,10 +2026,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -2050,7 +2059,7 @@
     </row>
     <row r="15" spans="6:6">
       <c r="F15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/public/数据语料平台.xlsx
+++ b/public/数据语料平台.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>序号</t>
   </si>
@@ -41,19 +41,10 @@
     <t>印刷集团</t>
   </si>
   <si>
-    <t>5.3T</t>
-  </si>
-  <si>
     <t>中交集团</t>
   </si>
   <si>
-    <t>0.5T</t>
-  </si>
-  <si>
     <t>蒙泰集团</t>
-  </si>
-  <si>
-    <t>0.2T</t>
   </si>
   <si>
     <t>行业名称</t>
@@ -1149,7 +1140,7 @@
   <dimension ref="A10:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1176,8 +1167,8 @@
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
-        <v>6</v>
+      <c r="C11">
+        <v>5.3</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1185,10 +1176,10 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1196,10 +1187,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -1231,13 +1222,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1245,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>0.2</v>
@@ -1260,7 +1251,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>0.3</v>
@@ -1275,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>0.1</v>
@@ -1290,7 +1281,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>0.04</v>
@@ -1305,7 +1296,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>8.14</v>
@@ -1320,7 +1311,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>0.1</v>
@@ -1335,7 +1326,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>0.1</v>
@@ -1350,7 +1341,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>0.01</v>
@@ -1365,7 +1356,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>0.005</v>
@@ -1380,7 +1371,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>0.005</v>
@@ -1395,7 +1386,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -1410,7 +1401,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>40</v>
@@ -1430,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1444,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <v>0.01</v>
@@ -1462,7 +1453,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <v>0.03</v>
@@ -1480,7 +1471,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>0.02</v>
@@ -1498,7 +1489,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>0.05</v>
@@ -1516,7 +1507,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>0.02</v>
@@ -1534,7 +1525,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C24">
         <f>C2-SUM(C19:C23)</f>
@@ -1577,13 +1568,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1591,7 +1582,7 @@
         <v>1.1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>0.01</v>
@@ -1609,7 +1600,7 @@
         <v>1.2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>0.03</v>
@@ -1627,7 +1618,7 @@
         <v>1.3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>0.02</v>
@@ -1645,7 +1636,7 @@
         <v>1.4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>0.05</v>
@@ -1663,7 +1654,7 @@
         <v>1.5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>0.02</v>
@@ -1681,7 +1672,7 @@
         <v>1.6</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <f>0.2-SUM(C2:C6)</f>
@@ -1726,10 +1717,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1737,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>43</v>
@@ -1748,7 +1739,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>34</v>
@@ -1759,7 +1750,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>16</v>
@@ -1770,7 +1761,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1781,7 +1772,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1820,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1831,7 +1822,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>18</v>
@@ -1842,7 +1833,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -1853,7 +1844,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <f>59-C2-C3</f>
@@ -1893,16 +1884,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
         <v>45</v>
-      </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1998,7 +1989,7 @@
     </row>
     <row r="10" spans="6:6">
       <c r="F10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2026,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -2059,7 +2050,7 @@
     </row>
     <row r="15" spans="6:6">
       <c r="F15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
